--- a/Work Record.xlsx
+++ b/Work Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\졸업작품\Dynamic Formula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcjse\Desktop\Dynamic-Formula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24943AB0-44A3-4A03-A34B-03F251B3B248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33EA7A7-148E-4E29-AB8E-4CAD164ACC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4125" yWindow="1965" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>김지성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,50 @@
   </si>
   <si>
     <t>3월 28일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">d3d 클라이언트에 물리엔진 추가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cascaded Shadow Map 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나믹 큐브 매핑 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션 블러 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임워크 구조 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확한 오브젝트 물리를 위한 강체 생성 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 조작감 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSAA 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모션 블러 관련 오류 수정 및 속도감을 위한 카메라 세부 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙 제작을 위한 유니티 스크립트 작성 및 트랙 제작 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미완성된 트랙 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,9 +372,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -352,6 +393,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +681,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -648,768 +692,794 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="10"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="10"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="10"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="10"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="10"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="10"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="10"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="10"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="10"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="10"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="10"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="10"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="10"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="10"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="9"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="10"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="10"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="10"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="10"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="10"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="10"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="10"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="10"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="10"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="10"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="9"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="10"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="10"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="10"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="10"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="10"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="10"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="10"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="10"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="9"/>
     </row>
     <row r="59" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="10"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="10"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="10"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="9"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="10"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="9"/>
     </row>
     <row r="63" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="10"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="10"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="9"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="10"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="9"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="10"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="10"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="9"/>
     </row>
     <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="9"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="10"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="9"/>
     </row>
     <row r="69" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="9"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="10"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="9"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="10"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="9"/>
     </row>
     <row r="71" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="9"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="10"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="9"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="10"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="9"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="10"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="9"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="10"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="9"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="10"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="9"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="10"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="9"/>
     </row>
     <row r="77" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="9"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="10"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="9"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="10"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="9"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="10"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="9"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="10"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="9"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="10"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="9"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="10"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="9"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="10"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="9"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="10"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="9"/>
     </row>
     <row r="85" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="9"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="10"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="9"/>
     </row>
     <row r="86" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="9"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="10"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="9"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="10"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="9"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="10"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="9"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="10"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="9"/>
     </row>
     <row r="90" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="9"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="10"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="9"/>
     </row>
     <row r="91" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="9"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="10"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="9"/>
     </row>
     <row r="92" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="9"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="10"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="9"/>
     </row>
     <row r="93" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="9"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="10"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="9"/>
     </row>
     <row r="94" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="9"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="10"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="9"/>
     </row>
     <row r="95" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="9"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="10"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="9"/>
     </row>
     <row r="96" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="10"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="9"/>
     </row>
     <row r="97" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="9"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="10"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="9"/>
     </row>
     <row r="98" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="9"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="10"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="9"/>
     </row>
     <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="10"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="13"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Work Record.xlsx
+++ b/Work Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcjse\Desktop\Dynamic-Formula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\졸업작품\Dynamic Formula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33EA7A7-148E-4E29-AB8E-4CAD164ACC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF6B44-A1B1-4E98-8187-80E1CD620F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4125" yWindow="1965" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="2025" windowWidth="21570" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>김지성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,54 @@
   </si>
   <si>
     <t>미완성된 트랙 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델 파일 수집, 블렌더 모델(재질, 텍스쳐 포함) Importing 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IOCP 모델 설계, 클라이언트 다중 접속, 버퍼 복사 최적화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비서버 추가, 로비 및 게임방 로직 설계, 사용자 데이터베이스 추가, 로그인/등록 기능 추가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비 및 게임방 로직 개발, 스트레스 테스트.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트에 씬 다형화, 씬 마다 서버와 통신하는 패킷 추가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임서버에 물리엔진 추가, 리지드바디 생성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 물리엔진 연구 및 적용, transform 패킷 생성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 생성, 물리엔진 및 broadcast 이벤트 큐 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리엔진 timestep 연구, 레이턴시 마스킹 및 transform 보간 시도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">클라이언트/서버 간 물리엔진 동기화 연구, transform 보간 시도. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 authoritative로 변경, UDP 통신으로 transform 패킷 전달하여 보간.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사일 오브젝트 생성 및 차량 컴포넌트 업데이트.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -397,6 +445,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,14 +744,16 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="5" width="45.125" customWidth="1"/>
+    <col min="3" max="3" width="58.25" customWidth="1"/>
+    <col min="4" max="4" width="69.25" customWidth="1"/>
+    <col min="5" max="5" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.5">
@@ -727,7 +792,9 @@
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -740,21 +807,25 @@
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
+    <row r="5" spans="1:5" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
@@ -766,7 +837,9 @@
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -779,7 +852,9 @@
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -792,7 +867,9 @@
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -805,7 +882,9 @@
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -818,7 +897,9 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -831,7 +912,9 @@
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -844,7 +927,9 @@
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -857,7 +942,9 @@
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -870,7 +957,9 @@
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/Work Record.xlsx
+++ b/Work Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\졸업작품\Dynamic Formula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Dynamic-Formula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF6B44-A1B1-4E98-8187-80E1CD620F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C78193-8EA6-44CC-AEE7-C970FC4A10EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="2025" windowWidth="21570" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>김지성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,54 @@
   </si>
   <si>
     <t>미사일 오브젝트 생성 및 차량 컴포넌트 업데이트.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct2D를 프레임워크에 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 구조 적용, UI띄우기 성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임씬 UI 생성(시간, 랩 수, 차량속력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게임씬 드리프트 게이지, 아이템 UI 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3d error 조치, UI클래스 구조 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI resize error 조치, d3d error도 해결.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 구조에서 Scene별 UI로 구조 변경.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login UI및 Lobby UI 생성, Scene전환 시 다른 UI생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login UI와 Scene의 상호작용 구조 설정.(마우스, 키보드 처리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버와 통신 구조 생성. LoginUI에서 Login 씬으로 패킷 인자 설정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyUI에서 LoginScene으로 상호작용 설정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lobby와 서버 패킷구조 설정.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,9 +491,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,29 +791,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="58.25" customWidth="1"/>
-    <col min="4" max="4" width="69.25" customWidth="1"/>
-    <col min="5" max="5" width="45.125" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="58.19921875" customWidth="1"/>
+    <col min="4" max="4" width="69.19921875" customWidth="1"/>
+    <col min="5" max="5" width="45.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -782,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -795,9 +843,11 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -810,24 +860,28 @@
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -840,9 +894,11 @@
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -855,9 +911,11 @@
       <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -870,9 +928,11 @@
       <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -885,9 +945,11 @@
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -900,9 +962,11 @@
       <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -915,9 +979,11 @@
       <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -930,9 +996,11 @@
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -945,9 +1013,11 @@
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -960,9 +1030,11 @@
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -975,595 +1047,595 @@
       <c r="D15" s="2"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="8"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="8"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="8"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="8"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="8"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="8"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="8"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="8"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="8"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="8"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="8"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="8"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="8"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="8"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="8"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="8"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="8"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="8"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="8"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="8"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="8"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="8"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="8"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="8"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="8"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="9"/>
     </row>
-    <row r="63" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="8"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="8"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="9"/>
     </row>
-    <row r="65" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="8"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="8"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="8"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="8"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="8"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="8"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="9"/>
     </row>
-    <row r="73" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="9"/>
     </row>
-    <row r="75" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="8"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="8"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="9"/>
     </row>
-    <row r="77" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="8"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="8"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="8"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="8"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="8"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="8"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="9"/>
     </row>
-    <row r="83" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="8"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="8"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="8"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="8"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="9"/>
     </row>
-    <row r="87" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="8"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="8"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="9"/>
     </row>
-    <row r="89" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="8"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="8"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="9"/>
     </row>
-    <row r="91" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="8"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="8"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="9"/>
     </row>
-    <row r="93" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="8"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="8"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="9"/>
     </row>
-    <row r="95" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="8"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="8"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="9"/>
     </row>
-    <row r="97" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="8"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="8"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="9"/>
     </row>
-    <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="8"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -1576,5 +1648,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Work Record.xlsx
+++ b/Work Record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\졸업작품\Dynamic Formula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF6B44-A1B1-4E98-8187-80E1CD620F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8313D9-5E48-49FA-B9F1-5AC015B6EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="2025" windowWidth="21570" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>김지성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,26 @@
   </si>
   <si>
     <t>미사일 오브젝트 생성 및 차량 컴포넌트 업데이트.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드리프트 기능 구현, 차량 컴포넌트 수정, 보간 오류 수정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵(트랙) 메쉬 생성 및 물리엔진 적용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사일 발사 기능 구현. 충돌 판별 로직 설정, 체크포인트 메쉬 생성.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -443,9 +463,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,6 +478,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -743,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -757,13 +781,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -813,19 +837,19 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
@@ -972,53 +996,77 @@
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
+    <row r="16" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13">
+        <v>17</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13">
+        <v>18</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>

--- a/Work Record.xlsx
+++ b/Work Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\졸업작품\Dynamic Formula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8313D9-5E48-49FA-B9F1-5AC015B6EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CDAF4C-FE4E-4DEA-B8E5-2D916D3FA7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4965" yWindow="2025" windowWidth="21570" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>김지성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,20 @@
   </si>
   <si>
     <t>미사일 발사 기능 구현. 충돌 판별 로직 설정, 체크포인트 메쉬 생성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 18일</t>
+  </si>
+  <si>
+    <t>4월 25일</t>
+  </si>
+  <si>
+    <t>충돌 로직 보완, 체크포인트 판별 및 관련 로직 구현. 충돌 마스크 설정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 포인트 갱신, 순위 결정 로직 추가, 관련 정보 패킷 전송 및 수신.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,13 +492,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -767,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -781,13 +795,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -1005,11 +1019,11 @@
       <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="9"/>
@@ -1018,7 +1032,7 @@
       <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="3"/>
@@ -1031,18 +1045,26 @@
       <c r="A18" s="13">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/Work Record.xlsx
+++ b/Work Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\졸업작품\Dynamic Formula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Dynamic-Formula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CDAF4C-FE4E-4DEA-B8E5-2D916D3FA7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6E190A-865A-4DD7-AAD4-22F1ADA22B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="2025" windowWidth="21570" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>김지성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,43 @@
   <si>
     <t>플레이어 포인트 갱신, 순위 결정 로직 추가, 관련 정보 패킷 전송 및 수신.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct2D를 프레임워크에 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 구조 적용, UI 띄우기 성공</t>
+  </si>
+  <si>
+    <t>인게임씬 UI 생성(시간, 랩 수, 차량속력)</t>
+  </si>
+  <si>
+    <t>인게임씬 드리프트 게이지, 아이템 UI 추가</t>
+  </si>
+  <si>
+    <t>d3d eror 조치, UI클래스 구조 변경</t>
+  </si>
+  <si>
+    <t>UI resize error 조치, d3d error도 해결</t>
+  </si>
+  <si>
+    <t>Scene Stack구조에 맞춰 UI 구조 변경</t>
+  </si>
+  <si>
+    <t>Login UI 및 Lobby UI 생성</t>
+  </si>
+  <si>
+    <t>Login UI와 Scene의 상호작용 구조 설정</t>
+  </si>
+  <si>
+    <t>서버와 통신 구조 생성. LoginUI에서 Login씬으로 통신 구조 생성.</t>
+  </si>
+  <si>
+    <t>LobbyUI에서 LoginScene 으로 상호작용 설정.</t>
+  </si>
+  <si>
+    <t>Lobby와 서버 패킷구조 설정.</t>
   </si>
 </sst>
 </file>
@@ -452,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -488,9 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -781,29 +815,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="58.25" customWidth="1"/>
-    <col min="4" max="4" width="69.25" customWidth="1"/>
-    <col min="5" max="5" width="45.125" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="3" max="3" width="58.19921875" customWidth="1"/>
+    <col min="4" max="4" width="69.19921875" customWidth="1"/>
+    <col min="5" max="5" width="45.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -820,7 +854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -833,9 +867,11 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -848,9 +884,11 @@
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -863,9 +901,11 @@
       <c r="D5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -878,9 +918,11 @@
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -893,9 +935,11 @@
       <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -908,9 +952,11 @@
       <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -923,9 +969,11 @@
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -938,9 +986,11 @@
       <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -953,9 +1003,11 @@
       <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -968,9 +1020,11 @@
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -983,9 +1037,11 @@
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -998,9 +1054,11 @@
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -1013,52 +1071,48 @@
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="13">
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="13">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="3"/>
@@ -1067,7 +1121,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -1076,7 +1130,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -1085,7 +1139,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -1094,546 +1148,546 @@
       <c r="D22" s="3"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="8"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="8"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="8"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="8"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="8"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="8"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="8"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="8"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="8"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="8"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="8"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="8"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="8"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="8"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="8"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="8"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="8"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="8"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="8"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="8"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="8"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="8"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="8"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="9"/>
     </row>
-    <row r="63" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="8"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="8"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="9"/>
     </row>
-    <row r="65" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="8"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="8"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="8"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="8"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="8"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="8"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="9"/>
     </row>
-    <row r="73" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="9"/>
     </row>
-    <row r="75" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="8"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="8"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="9"/>
     </row>
-    <row r="77" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="8"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="8"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="8"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="8"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="8"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="8"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="9"/>
     </row>
-    <row r="83" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="8"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="8"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="8"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="8"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="9"/>
     </row>
-    <row r="87" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="8"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="8"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="9"/>
     </row>
-    <row r="89" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="8"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="8"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="9"/>
     </row>
-    <row r="91" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="8"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="8"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="9"/>
     </row>
-    <row r="93" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="8"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="8"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="9"/>
     </row>
-    <row r="95" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="8"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="8"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="9"/>
     </row>
-    <row r="97" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="8"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="8"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="9"/>
     </row>
-    <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="8"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -1646,5 +1700,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Work Record.xlsx
+++ b/Work Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Dynamic-Formula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcjse\Desktop\Dynamic-Formula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C78193-8EA6-44CC-AEE7-C970FC4A10EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2261FE-888C-4878-A4FC-3650BD34C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16155" yWindow="2700" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>김지성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,46 @@
   </si>
   <si>
     <t>Lobby와 서버 패킷구조 설정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 18일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 25일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 물리 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵에 체크포인트 추가 및 체크포인트 위치 저장/읽어오기 구현, 블룸 후처리 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼류메트릭 스캐터링 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼류메트릭 스캐터링 구현, 맵 티테일 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티클 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +344,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -466,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -507,6 +556,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -791,20 +849,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" customWidth="1"/>
-    <col min="3" max="3" width="58.19921875" customWidth="1"/>
-    <col min="4" max="4" width="69.19921875" customWidth="1"/>
-    <col min="5" max="5" width="45.09765625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="58.25" customWidth="1"/>
+    <col min="4" max="4" width="69.25" customWidth="1"/>
+    <col min="5" max="5" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
@@ -813,7 +871,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -830,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -847,7 +905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -864,7 +922,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -881,7 +939,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -898,7 +956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -915,7 +973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -932,7 +990,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -949,7 +1007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -966,7 +1024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -983,7 +1041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -1000,7 +1058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -1017,7 +1075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -1034,7 +1092,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -1047,595 +1105,625 @@
       <c r="D15" s="2"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+    <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+    <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="22">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="8"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+    <row r="18" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+    <row r="19" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+    <row r="20" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
-      <c r="B22" s="3"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="9"/>
     </row>
-    <row r="54" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="9"/>
     </row>
-    <row r="63" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="9"/>
     </row>
-    <row r="65" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="9"/>
     </row>
-    <row r="73" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="9"/>
     </row>
-    <row r="75" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="9"/>
     </row>
-    <row r="77" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="9"/>
     </row>
-    <row r="83" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="9"/>
     </row>
-    <row r="87" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="8"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="9"/>
     </row>
-    <row r="89" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="9"/>
     </row>
-    <row r="90" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="9"/>
     </row>
-    <row r="91" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="9"/>
     </row>
-    <row r="92" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="9"/>
     </row>
-    <row r="93" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="9"/>
     </row>
-    <row r="94" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="9"/>
     </row>
-    <row r="95" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="9"/>
     </row>
-    <row r="97" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="9"/>
     </row>
-    <row r="98" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="9"/>
     </row>
-    <row r="99" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="9"/>
     </row>
-    <row r="100" spans="1:5" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>

--- a/Work Record.xlsx
+++ b/Work Record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcjse\Desktop\Dynamic-Formula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\졸업작품\Dynamic Formula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2261FE-888C-4878-A4FC-3650BD34C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D5AC04-26BD-4268-9B69-14ACCB11BF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16155" yWindow="2700" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>김지성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5월 1일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>차량 물리 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,6 +276,62 @@
   </si>
   <si>
     <t>파티클 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드리프트 기능 구현, 차량 컴포넌트 수정, 보간 오류 수정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵(트랙) 메쉬 생성 및 물리엔진 적용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사일 발사 기능 구현. 충돌 판별 로직 설정, 체크포인트 메쉬 생성.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충돌 로직 보완, 체크포인트 판별 및 관련 로직 구현. 충돌 마스크 설정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 포인트 갱신, 순위 결정 로직 추가, 관련 정보 패킷 전송 및 수신.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 9일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 16일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 23일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 30일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비서버 수정 및 룸 씬 관련 오류 처리.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transform 패킷 압축(Quaternion Smallest three), 미사일 패킷 크기 축소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue를 사용한 Transform 보간법 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리 풀 적용 및 로비 씬과의 상호작용을 위해 로비 서버 로직 수정.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -555,9 +607,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -567,6 +616,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -850,26 +903,26 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="58.25" customWidth="1"/>
+    <col min="3" max="3" width="71.125" customWidth="1"/>
     <col min="4" max="4" width="69.25" customWidth="1"/>
     <col min="5" max="5" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -1102,119 +1155,153 @@
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21">
+    <row r="16" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22">
-        <v>15</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21">
-        <v>16</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
-        <v>17</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
-        <v>18</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="20">
+        <v>19</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="20">
+        <v>21</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="20">
+        <v>22</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
-      <c r="B26" s="20"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="9"/>

--- a/Work Record.xlsx
+++ b/Work Record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\졸업작품\Dynamic Formula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\졸업작품\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D5AC04-26BD-4268-9B69-14ACCB11BF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAB1418-664E-4C18-A35D-1775F9E91013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="270" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>김지성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,75 @@
   <si>
     <t>메모리 풀 적용 및 로비 씬과의 상호작용을 위해 로비 서버 로직 수정.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 6일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 13일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP 소켓 통신 구조 변경.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP 통신 구조 개선 및 레이턴시 계산법 적용.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프러스텀 컬링 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐이더 컴파일을 런타임이 아닌 빌드할 때 하도록 변경, 로딩시간 단축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 추가 및 받은 패킷에 따라 다른 맵을 로딩하는 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사일 파티클 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리엔진 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LodingScene추가, 업데이트 되는 정보를 Scene이 가지게 변경</t>
+  </si>
+  <si>
+    <t>특정 상황에 따라 LobbyUI 업데이트 안되는 버그 수정.</t>
+  </si>
+  <si>
+    <t>LobbyUI에 띄우는 Room정보 변경, 바뀐 정보에 따라 띄우기.</t>
+  </si>
+  <si>
+    <t>LobbyUI 상호작용 설정. 각 Room정보 띄우기.</t>
+  </si>
+  <si>
+    <t>RoomUI 버그 수정, LobbyUI 디자인</t>
+  </si>
+  <si>
+    <t>RoomUI 상호작용 설정, Start, Ready, Nickname, Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoomUI 디자인 </t>
+  </si>
+  <si>
+    <t>IngameUI Record 띄우기, Warning, Score계산 설정</t>
+  </si>
+  <si>
+    <t>IngameUI 상호작용 설정, 드리프트 게이지, 아이템 설정</t>
+  </si>
+  <si>
+    <t>LobbyUI 화살표를 통한 Page 이동 입력 추가</t>
+  </si>
+  <si>
+    <t>배경이미지 추가, LobbyUI Scene 구성</t>
   </si>
 </sst>
 </file>
@@ -616,10 +685,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -902,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -912,17 +981,17 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="71.125" customWidth="1"/>
     <col min="4" max="4" width="69.25" customWidth="1"/>
-    <col min="5" max="5" width="45.125" customWidth="1"/>
+    <col min="5" max="5" width="62.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
@@ -1158,7 +1227,9 @@
       <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -1170,10 +1241,12 @@
       <c r="C16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
@@ -1188,7 +1261,9 @@
       <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
@@ -1203,7 +1278,9 @@
       <c r="D18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
@@ -1218,7 +1295,9 @@
       <c r="D19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
@@ -1233,7 +1312,9 @@
       <c r="D20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
@@ -1242,11 +1323,15 @@
       <c r="B21" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
@@ -1255,11 +1340,15 @@
       <c r="B22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
@@ -1268,11 +1357,15 @@
       <c r="B23" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
@@ -1281,20 +1374,40 @@
       <c r="B24" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="20">
+        <v>23</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="20">
+        <v>24</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="9"/>
